--- a/data/Spreadsheet_Data/ImageWonderlandCharacter.xlsx
+++ b/data/Spreadsheet_Data/ImageWonderlandCharacter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E82887-ADD8-4C4B-9E21-FA9405E37C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490CF01F-CE89-884E-828B-88FB814BA124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24300" yWindow="2980" windowWidth="44260" windowHeight="16940" xr2:uid="{66B744F4-BA8C-F243-ADB2-B02347D4BBA8}"/>
+    <workbookView xWindow="35340" yWindow="500" windowWidth="40140" windowHeight="31500" xr2:uid="{66B744F4-BA8C-F243-ADB2-B02347D4BBA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -43,9 +43,6 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>Time Stamp</t>
-  </si>
-  <si>
     <t>Copyright</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Label</t>
   </si>
   <si>
-    <t>~/Documents/daschland-scripts/data/Multimedia_Data/Image_Wonderland/</t>
-  </si>
-  <si>
     <t>IW_001</t>
   </si>
   <si>
@@ -79,6 +73,69 @@
     <t>IW_006</t>
   </si>
   <si>
+    <t>Alice_001.jpg</t>
+  </si>
+  <si>
+    <t>Caterpillar_001.jpg</t>
+  </si>
+  <si>
+    <t>Cheshire_cat_001.jpg</t>
+  </si>
+  <si>
+    <t>Mad_hatter_001.jpg</t>
+  </si>
+  <si>
+    <t>Queen_hearts_001.jpg</t>
+  </si>
+  <si>
+    <t>White_Rabbit_001.jpg</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Caterpillar</t>
+  </si>
+  <si>
+    <t>Cheshire Cat</t>
+  </si>
+  <si>
+    <t>Mad Hatter</t>
+  </si>
+  <si>
+    <t>Queen of Hearts</t>
+  </si>
+  <si>
+    <t>White Rabbit</t>
+  </si>
+  <si>
+    <t>data/Multimedia_Data/Image_Wonderland/</t>
+  </si>
+  <si>
+    <t>Alice_002.jpg</t>
+  </si>
+  <si>
+    <t>Alice_003.jpg</t>
+  </si>
+  <si>
+    <t>Alice_004.jpg</t>
+  </si>
+  <si>
+    <t>Caterpillar_002.jpg</t>
+  </si>
+  <si>
+    <t>Cheshire_cat_002.jpg</t>
+  </si>
+  <si>
+    <t>Mad_hatter_002.jpg</t>
+  </si>
+  <si>
+    <t>Queen_hearts_002.jpg</t>
+  </si>
+  <si>
+    <t>White_rabbit_002.jpg</t>
+  </si>
+  <si>
     <t>IW_007</t>
   </si>
   <si>
@@ -103,46 +160,10 @@
     <t>IW_014</t>
   </si>
   <si>
-    <t>IW_015</t>
-  </si>
-  <si>
-    <t>IW_016</t>
-  </si>
-  <si>
-    <t>Alice_001.jpg</t>
-  </si>
-  <si>
-    <t>Caterpillar_001.jpg</t>
-  </si>
-  <si>
-    <t>Cheshire_cat_001.jpg</t>
-  </si>
-  <si>
-    <t>Mad_hatter_001.jpg</t>
-  </si>
-  <si>
-    <t>Queen_hearts_001.jpg</t>
-  </si>
-  <si>
-    <t>White_Rabbit_001.jpg</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Caterpillar</t>
-  </si>
-  <si>
-    <t>Cheshire Cat</t>
-  </si>
-  <si>
-    <t>Mad Hatter</t>
-  </si>
-  <si>
-    <t>Queen of Hearts</t>
-  </si>
-  <si>
-    <t>White Rabbit</t>
+    <t>© Disney</t>
+  </si>
+  <si>
+    <t>© John Tenniel</t>
   </si>
 </sst>
 </file>
@@ -213,9 +234,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,7 +274,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -359,7 +380,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -501,7 +522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -509,20 +530,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74556BE0-D537-5748-89ED-4DC0B4F13FEE}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,141 +563,242 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/Spreadsheet_Data/ImageWonderlandCharacter.xlsx
+++ b/data/Spreadsheet_Data/ImageWonderlandCharacter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490CF01F-CE89-884E-828B-88FB814BA124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EFB851-479B-2B4B-B7A9-7374FA72E05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35340" yWindow="500" windowWidth="40140" windowHeight="31500" xr2:uid="{66B744F4-BA8C-F243-ADB2-B02347D4BBA8}"/>
+    <workbookView xWindow="25700" yWindow="500" windowWidth="51100" windowHeight="31500" xr2:uid="{66B744F4-BA8C-F243-ADB2-B02347D4BBA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="248">
   <si>
     <t>ID</t>
   </si>
@@ -73,24 +73,6 @@
     <t>IW_006</t>
   </si>
   <si>
-    <t>Alice_001.jpg</t>
-  </si>
-  <si>
-    <t>Caterpillar_001.jpg</t>
-  </si>
-  <si>
-    <t>Cheshire_cat_001.jpg</t>
-  </si>
-  <si>
-    <t>Mad_hatter_001.jpg</t>
-  </si>
-  <si>
-    <t>Queen_hearts_001.jpg</t>
-  </si>
-  <si>
-    <t>White_Rabbit_001.jpg</t>
-  </si>
-  <si>
     <t>Alice</t>
   </si>
   <si>
@@ -112,9 +94,6 @@
     <t>data/Multimedia_Data/Image_Wonderland/</t>
   </si>
   <si>
-    <t>Alice_002.jpg</t>
-  </si>
-  <si>
     <t>Alice_003.jpg</t>
   </si>
   <si>
@@ -164,6 +143,642 @@
   </si>
   <si>
     <t>© John Tenniel</t>
+  </si>
+  <si>
+    <t>1book0.jpg</t>
+  </si>
+  <si>
+    <t>1book1.jpg</t>
+  </si>
+  <si>
+    <t>1book2.jpg</t>
+  </si>
+  <si>
+    <t>1book3.jpg</t>
+  </si>
+  <si>
+    <t>1book4.jpg</t>
+  </si>
+  <si>
+    <t>1book5.jpg</t>
+  </si>
+  <si>
+    <t>1book6.jpg</t>
+  </si>
+  <si>
+    <t>1book7.jpg</t>
+  </si>
+  <si>
+    <t>1book8.jpg</t>
+  </si>
+  <si>
+    <t>1book9.jpg</t>
+  </si>
+  <si>
+    <t>1book10.jpg</t>
+  </si>
+  <si>
+    <t>1book11.jpg</t>
+  </si>
+  <si>
+    <t>1book12.jpg</t>
+  </si>
+  <si>
+    <t>1book13.jpg</t>
+  </si>
+  <si>
+    <t>1book14.jpg</t>
+  </si>
+  <si>
+    <t>1book15.jpg</t>
+  </si>
+  <si>
+    <t>1book16.jpg</t>
+  </si>
+  <si>
+    <t>1book17.jpg</t>
+  </si>
+  <si>
+    <t>1book18.jpg</t>
+  </si>
+  <si>
+    <t>1book19.jpg</t>
+  </si>
+  <si>
+    <t>1book20.jpg</t>
+  </si>
+  <si>
+    <t>1book21.jpg</t>
+  </si>
+  <si>
+    <t>1book22.jpg</t>
+  </si>
+  <si>
+    <t>1book23.jpg</t>
+  </si>
+  <si>
+    <t>1book24.jpg</t>
+  </si>
+  <si>
+    <t>1book25.jpg</t>
+  </si>
+  <si>
+    <t>1book26.jpg</t>
+  </si>
+  <si>
+    <t>1book27.jpg</t>
+  </si>
+  <si>
+    <t>1book28.jpg</t>
+  </si>
+  <si>
+    <t>1book29.jpg</t>
+  </si>
+  <si>
+    <t>1book30.jpg</t>
+  </si>
+  <si>
+    <t>1book31.jpg</t>
+  </si>
+  <si>
+    <t>1book32.jpg</t>
+  </si>
+  <si>
+    <t>1book33.jpg</t>
+  </si>
+  <si>
+    <t>1book34.jpg</t>
+  </si>
+  <si>
+    <t>1book35.jpg</t>
+  </si>
+  <si>
+    <t>1book36.jpg</t>
+  </si>
+  <si>
+    <t>1book37.jpg</t>
+  </si>
+  <si>
+    <t>1book38.jpg</t>
+  </si>
+  <si>
+    <t>1book39.jpg</t>
+  </si>
+  <si>
+    <t>1book40.jpg</t>
+  </si>
+  <si>
+    <t>1book41.jpg</t>
+  </si>
+  <si>
+    <t>IW_015</t>
+  </si>
+  <si>
+    <t>IW_016</t>
+  </si>
+  <si>
+    <t>IW_017</t>
+  </si>
+  <si>
+    <t>IW_018</t>
+  </si>
+  <si>
+    <t>IW_019</t>
+  </si>
+  <si>
+    <t>IW_020</t>
+  </si>
+  <si>
+    <t>IW_021</t>
+  </si>
+  <si>
+    <t>IW_022</t>
+  </si>
+  <si>
+    <t>IW_023</t>
+  </si>
+  <si>
+    <t>IW_024</t>
+  </si>
+  <si>
+    <t>IW_025</t>
+  </si>
+  <si>
+    <t>IW_026</t>
+  </si>
+  <si>
+    <t>IW_027</t>
+  </si>
+  <si>
+    <t>IW_028</t>
+  </si>
+  <si>
+    <t>IW_029</t>
+  </si>
+  <si>
+    <t>IW_030</t>
+  </si>
+  <si>
+    <t>IW_031</t>
+  </si>
+  <si>
+    <t>IW_032</t>
+  </si>
+  <si>
+    <t>IW_033</t>
+  </si>
+  <si>
+    <t>IW_034</t>
+  </si>
+  <si>
+    <t>IW_035</t>
+  </si>
+  <si>
+    <t>IW_036</t>
+  </si>
+  <si>
+    <t>IW_037</t>
+  </si>
+  <si>
+    <t>IW_038</t>
+  </si>
+  <si>
+    <t>IW_039</t>
+  </si>
+  <si>
+    <t>IW_040</t>
+  </si>
+  <si>
+    <t>IW_041</t>
+  </si>
+  <si>
+    <t>IW_042</t>
+  </si>
+  <si>
+    <t>IW_043</t>
+  </si>
+  <si>
+    <t>IW_044</t>
+  </si>
+  <si>
+    <t>IW_045</t>
+  </si>
+  <si>
+    <t>IW_046</t>
+  </si>
+  <si>
+    <t>IW_047</t>
+  </si>
+  <si>
+    <t>IW_048</t>
+  </si>
+  <si>
+    <t>IW_049</t>
+  </si>
+  <si>
+    <t>Alice finding a little door</t>
+  </si>
+  <si>
+    <t>Alice growing taller</t>
+  </si>
+  <si>
+    <t>King and Queen of Hearts sitting on their throne in court</t>
+  </si>
+  <si>
+    <t>White Rabbit looking at his watch</t>
+  </si>
+  <si>
+    <t>Alice holding the "Drink Me" bottle</t>
+  </si>
+  <si>
+    <t>White Rabbit skurrying away from Alice</t>
+  </si>
+  <si>
+    <t>Alice swimming in the Pool of tears</t>
+  </si>
+  <si>
+    <t>Alice and the Mouse swimming in the Pool of tears</t>
+  </si>
+  <si>
+    <t>Alice accepting a thimble from Dodo</t>
+  </si>
+  <si>
+    <t>Mouse telling its tale to Alice and creatures</t>
+  </si>
+  <si>
+    <t>Alice outgrowing White Rabbit's house</t>
+  </si>
+  <si>
+    <t>Alice's hand reaching for White Rabbit</t>
+  </si>
+  <si>
+    <t>Bill the lizzard rocketting out of the chimney</t>
+  </si>
+  <si>
+    <t>The puppy looking at Alice</t>
+  </si>
+  <si>
+    <t>Caterpillar questionning Alice</t>
+  </si>
+  <si>
+    <t>Father William standing on his head</t>
+  </si>
+  <si>
+    <t>Father William turning a back-sommersault</t>
+  </si>
+  <si>
+    <t>Father William sitting at a table</t>
+  </si>
+  <si>
+    <t>Father William balancing an eel</t>
+  </si>
+  <si>
+    <t>Frog-Footman and Fish-Footman holding an invitation</t>
+  </si>
+  <si>
+    <t>Dutchess nursing the baby</t>
+  </si>
+  <si>
+    <t>Alice holding the pig baby</t>
+  </si>
+  <si>
+    <t>Cheshire-Cat grinning at Alice</t>
+  </si>
+  <si>
+    <t>Cheshire-Cat disappearing</t>
+  </si>
+  <si>
+    <t>Alice sitting at a mad tea-party</t>
+  </si>
+  <si>
+    <t>Hatter singing</t>
+  </si>
+  <si>
+    <t>Dormouse being put in a teapot</t>
+  </si>
+  <si>
+    <t>Card-gardeners painting roses</t>
+  </si>
+  <si>
+    <t>Queen of Hearts pointing at Alice</t>
+  </si>
+  <si>
+    <t>Alice holding her Flamingo</t>
+  </si>
+  <si>
+    <t>Executioners and crowd collecting round Cheshire-Cat</t>
+  </si>
+  <si>
+    <t>Alice and Duchess walking</t>
+  </si>
+  <si>
+    <t>Gryphon sleeping</t>
+  </si>
+  <si>
+    <t>Mock Turtle telling his story to Gryphon and Alice</t>
+  </si>
+  <si>
+    <t>Mock Turtle and Gryphon dancing round Alice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobster turning out his toes </t>
+  </si>
+  <si>
+    <t>White Rabbit as herald blowing a trumpet</t>
+  </si>
+  <si>
+    <t>Hatter shaking off his shoes</t>
+  </si>
+  <si>
+    <t>Hatter running</t>
+  </si>
+  <si>
+    <t>Alice tipping over the jury-box</t>
+  </si>
+  <si>
+    <t>King of Hearts pointing to the tarts in court</t>
+  </si>
+  <si>
+    <t>Cards flying down upon Alice</t>
+  </si>
+  <si>
+    <t>2book0.jpg</t>
+  </si>
+  <si>
+    <t>2book1.jpg</t>
+  </si>
+  <si>
+    <t>2book2.jpg</t>
+  </si>
+  <si>
+    <t>2book3.jpg</t>
+  </si>
+  <si>
+    <t>2book4.jpg</t>
+  </si>
+  <si>
+    <t>2book5.jpg</t>
+  </si>
+  <si>
+    <t>2book6.jpg</t>
+  </si>
+  <si>
+    <t>2book7.jpg</t>
+  </si>
+  <si>
+    <t>2book8.jpg</t>
+  </si>
+  <si>
+    <t>2book9.jpg</t>
+  </si>
+  <si>
+    <t>2book10.jpg</t>
+  </si>
+  <si>
+    <t>2book11.jpg</t>
+  </si>
+  <si>
+    <t>2book12.jpg</t>
+  </si>
+  <si>
+    <t>2book13.jpg</t>
+  </si>
+  <si>
+    <t>2book14.jpg</t>
+  </si>
+  <si>
+    <t>2book15.jpg</t>
+  </si>
+  <si>
+    <t>2book16.jpg</t>
+  </si>
+  <si>
+    <t>2book17.jpg</t>
+  </si>
+  <si>
+    <t>2book18.jpg</t>
+  </si>
+  <si>
+    <t>2book19.jpg</t>
+  </si>
+  <si>
+    <t>2book20.jpg</t>
+  </si>
+  <si>
+    <t>2book21.jpg</t>
+  </si>
+  <si>
+    <t>2book22.jpg</t>
+  </si>
+  <si>
+    <t>2book23.jpg</t>
+  </si>
+  <si>
+    <t>2book24.jpg</t>
+  </si>
+  <si>
+    <t>2book25.jpg</t>
+  </si>
+  <si>
+    <t>2book26.jpg</t>
+  </si>
+  <si>
+    <t>2book27.jpg</t>
+  </si>
+  <si>
+    <t>2book28.jpg</t>
+  </si>
+  <si>
+    <t>2book29.jpg</t>
+  </si>
+  <si>
+    <t>2book30.jpg</t>
+  </si>
+  <si>
+    <t>2book31.jpg</t>
+  </si>
+  <si>
+    <t>2book32.jpg</t>
+  </si>
+  <si>
+    <t>2book33.jpg</t>
+  </si>
+  <si>
+    <t>2book34.jpg</t>
+  </si>
+  <si>
+    <t>2book35.jpg</t>
+  </si>
+  <si>
+    <t>2book36.jpg</t>
+  </si>
+  <si>
+    <t>2book37.jpg</t>
+  </si>
+  <si>
+    <t>2book38.jpg</t>
+  </si>
+  <si>
+    <t>2book39.jpg</t>
+  </si>
+  <si>
+    <t>2book40.jpg</t>
+  </si>
+  <si>
+    <t>2book41.jpg</t>
+  </si>
+  <si>
+    <t>2book42.jpg</t>
+  </si>
+  <si>
+    <t>2book43.jpg</t>
+  </si>
+  <si>
+    <t>2book44.jpg</t>
+  </si>
+  <si>
+    <t>2book45.jpg</t>
+  </si>
+  <si>
+    <t>2book46.jpg</t>
+  </si>
+  <si>
+    <t>2book47.jpg</t>
+  </si>
+  <si>
+    <t>2book48.jpg</t>
+  </si>
+  <si>
+    <t>2book49.jpg</t>
+  </si>
+  <si>
+    <t>IW_050</t>
+  </si>
+  <si>
+    <t>IW_051</t>
+  </si>
+  <si>
+    <t>IW_052</t>
+  </si>
+  <si>
+    <t>IW_053</t>
+  </si>
+  <si>
+    <t>IW_054</t>
+  </si>
+  <si>
+    <t>IW_055</t>
+  </si>
+  <si>
+    <t>IW_056</t>
+  </si>
+  <si>
+    <t>IW_057</t>
+  </si>
+  <si>
+    <t>IW_058</t>
+  </si>
+  <si>
+    <t>IW_059</t>
+  </si>
+  <si>
+    <t>IW_060</t>
+  </si>
+  <si>
+    <t>IW_061</t>
+  </si>
+  <si>
+    <t>IW_062</t>
+  </si>
+  <si>
+    <t>IW_063</t>
+  </si>
+  <si>
+    <t>IW_064</t>
+  </si>
+  <si>
+    <t>IW_065</t>
+  </si>
+  <si>
+    <t>IW_066</t>
+  </si>
+  <si>
+    <t>IW_067</t>
+  </si>
+  <si>
+    <t>IW_068</t>
+  </si>
+  <si>
+    <t>IW_069</t>
+  </si>
+  <si>
+    <t>IW_070</t>
+  </si>
+  <si>
+    <t>IW_071</t>
+  </si>
+  <si>
+    <t>IW_072</t>
+  </si>
+  <si>
+    <t>IW_073</t>
+  </si>
+  <si>
+    <t>IW_074</t>
+  </si>
+  <si>
+    <t>IW_075</t>
+  </si>
+  <si>
+    <t>IW_076</t>
+  </si>
+  <si>
+    <t>IW_077</t>
+  </si>
+  <si>
+    <t>IW_078</t>
+  </si>
+  <si>
+    <t>IW_079</t>
+  </si>
+  <si>
+    <t>IW_080</t>
+  </si>
+  <si>
+    <t>IW_081</t>
+  </si>
+  <si>
+    <t>IW_082</t>
+  </si>
+  <si>
+    <t>IW_083</t>
+  </si>
+  <si>
+    <t>IW_084</t>
+  </si>
+  <si>
+    <t>IW_085</t>
+  </si>
+  <si>
+    <t>IW_086</t>
+  </si>
+  <si>
+    <t>IW_087</t>
+  </si>
+  <si>
+    <t>IW_088</t>
+  </si>
+  <si>
+    <t>IW_089</t>
+  </si>
+  <si>
+    <t>IW_090</t>
+  </si>
+  <si>
+    <t>IW_091</t>
+  </si>
+  <si>
+    <t>IW_092</t>
   </si>
 </sst>
 </file>
@@ -530,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74556BE0-D537-5748-89ED-4DC0B4F13FEE}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -541,7 +1156,7 @@
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -569,16 +1184,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -586,16 +1201,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -603,16 +1218,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -620,16 +1235,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -637,16 +1252,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -654,152 +1269,1447 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>217</v>
+      </c>
+      <c r="B63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>229</v>
+      </c>
+      <c r="B75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>233</v>
+      </c>
+      <c r="B79" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>235</v>
+      </c>
+      <c r="B81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>237</v>
+      </c>
+      <c r="B83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>238</v>
+      </c>
+      <c r="B84" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>239</v>
+      </c>
+      <c r="B85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>241</v>
+      </c>
+      <c r="B87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>244</v>
+      </c>
+      <c r="B90" t="s">
+        <v>201</v>
+      </c>
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>245</v>
+      </c>
+      <c r="B91" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>246</v>
+      </c>
+      <c r="B92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>247</v>
+      </c>
+      <c r="B93" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" t="s">
         <v>24</v>
       </c>
-      <c r="F15" t="s">
-        <v>23</v>
+      <c r="C99" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/ImageWonderlandCharacter.xlsx
+++ b/data/Spreadsheet_Data/ImageWonderlandCharacter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EFB851-479B-2B4B-B7A9-7374FA72E05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32C14F5-18C6-C943-806E-15BA4A7F24B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25700" yWindow="500" windowWidth="51100" windowHeight="31500" xr2:uid="{66B744F4-BA8C-F243-ADB2-B02347D4BBA8}"/>
+    <workbookView xWindow="36360" yWindow="500" windowWidth="38300" windowHeight="31500" xr2:uid="{66B744F4-BA8C-F243-ADB2-B02347D4BBA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="267">
   <si>
     <t>ID</t>
   </si>
@@ -779,6 +779,63 @@
   </si>
   <si>
     <t>IW_092</t>
+  </si>
+  <si>
+    <t>White knight riding his horse</t>
+  </si>
+  <si>
+    <t>Black kitten playing</t>
+  </si>
+  <si>
+    <t>Alice winding worsted in an arm-chair</t>
+  </si>
+  <si>
+    <t>Alice going through the looking-glass</t>
+  </si>
+  <si>
+    <t>Alice coming through the looking-glass</t>
+  </si>
+  <si>
+    <t>Chessmen walking</t>
+  </si>
+  <si>
+    <t>Alice picking up White King</t>
+  </si>
+  <si>
+    <t>The White Knight sliding down a poker</t>
+  </si>
+  <si>
+    <t>Jabberwork</t>
+  </si>
+  <si>
+    <t>Tiger-Lily and Alice talking</t>
+  </si>
+  <si>
+    <t>Alice and Red Queen talking</t>
+  </si>
+  <si>
+    <t>Chessboard-like country</t>
+  </si>
+  <si>
+    <t>Alice and Red Queen running</t>
+  </si>
+  <si>
+    <t>Alice sittin in a train carriage</t>
+  </si>
+  <si>
+    <t>Rocking-horse-fly</t>
+  </si>
+  <si>
+    <t>Snap-dragon-fly</t>
+  </si>
+  <si>
+    <t>Bread-and-butter-fly</t>
+  </si>
+  <si>
+    <t>Alice clasping her arms round Fawn</t>
+  </si>
+  <si>
+    <t>Alice calling on Tweedledum and Tweeldee</t>
   </si>
 </sst>
 </file>
@@ -1147,16 +1204,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74556BE0-D537-5748-89ED-4DC0B4F13FEE}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:XFD93"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -1906,6 +1963,9 @@
       <c r="E44" t="s">
         <v>18</v>
       </c>
+      <c r="F44" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1920,6 +1980,9 @@
       <c r="E45" t="s">
         <v>18</v>
       </c>
+      <c r="F45" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1934,6 +1997,9 @@
       <c r="E46" t="s">
         <v>18</v>
       </c>
+      <c r="F46" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1948,6 +2014,9 @@
       <c r="E47" t="s">
         <v>18</v>
       </c>
+      <c r="F47" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1962,8 +2031,11 @@
       <c r="E48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>111</v>
       </c>
@@ -1976,8 +2048,11 @@
       <c r="E49" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -1990,8 +2065,11 @@
       <c r="E50" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>205</v>
       </c>
@@ -2004,8 +2082,11 @@
       <c r="E51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>206</v>
       </c>
@@ -2018,8 +2099,11 @@
       <c r="E52" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>207</v>
       </c>
@@ -2032,8 +2116,11 @@
       <c r="E53" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>208</v>
       </c>
@@ -2046,8 +2133,11 @@
       <c r="E54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>209</v>
       </c>
@@ -2060,8 +2150,11 @@
       <c r="E55" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>210</v>
       </c>
@@ -2074,8 +2167,11 @@
       <c r="E56" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -2088,8 +2184,11 @@
       <c r="E57" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>212</v>
       </c>
@@ -2102,8 +2201,11 @@
       <c r="E58" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>213</v>
       </c>
@@ -2116,8 +2218,11 @@
       <c r="E59" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>214</v>
       </c>
@@ -2130,8 +2235,11 @@
       <c r="E60" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>215</v>
       </c>
@@ -2144,8 +2252,11 @@
       <c r="E61" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>216</v>
       </c>
@@ -2158,8 +2269,11 @@
       <c r="E62" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>217</v>
       </c>
@@ -2173,7 +2287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>218</v>
       </c>

--- a/data/Spreadsheet_Data/ImageWonderlandCharacter.xlsx
+++ b/data/Spreadsheet_Data/ImageWonderlandCharacter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32C14F5-18C6-C943-806E-15BA4A7F24B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336AA764-C2ED-3A4E-96F1-DA345E1CABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36360" yWindow="500" windowWidth="38300" windowHeight="31500" xr2:uid="{66B744F4-BA8C-F243-ADB2-B02347D4BBA8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="298">
   <si>
     <t>ID</t>
   </si>
@@ -836,6 +836,99 @@
   </si>
   <si>
     <t>Alice calling on Tweedledum and Tweeldee</t>
+  </si>
+  <si>
+    <t>Walrus and Carpenter walking</t>
+  </si>
+  <si>
+    <t>Walrus and Carpenter resting</t>
+  </si>
+  <si>
+    <t>Walrus and Carpenter eating</t>
+  </si>
+  <si>
+    <t>Red King snoring</t>
+  </si>
+  <si>
+    <t>Tweedledum crying in a fury</t>
+  </si>
+  <si>
+    <t>Tweedledum and Tweeldee</t>
+  </si>
+  <si>
+    <t>Alice a-dressing White Queen</t>
+  </si>
+  <si>
+    <t>Hatta sitting in prison</t>
+  </si>
+  <si>
+    <t>Alice leaning on counter in Sheep's shop</t>
+  </si>
+  <si>
+    <t>Alice rowing a boat</t>
+  </si>
+  <si>
+    <t>Humpty Dumpty offering Alice his hand</t>
+  </si>
+  <si>
+    <t>Jabberwocky creatures</t>
+  </si>
+  <si>
+    <t>Humpty Dumpty sending a message</t>
+  </si>
+  <si>
+    <t>White King soldiers and horses stumbling</t>
+  </si>
+  <si>
+    <t>Haigha handing a ham sandwich to the White King</t>
+  </si>
+  <si>
+    <t>Hatta drinking tea</t>
+  </si>
+  <si>
+    <t>Alice holding a plum cake</t>
+  </si>
+  <si>
+    <t>Alice putting her hands over her ears</t>
+  </si>
+  <si>
+    <t>Red Knight and White Knight fighting</t>
+  </si>
+  <si>
+    <t>White Knight falling off his horse</t>
+  </si>
+  <si>
+    <t>Alice dragging White Knight out off a ditch</t>
+  </si>
+  <si>
+    <t>White Knight shaking an aged man</t>
+  </si>
+  <si>
+    <t>Alice lifting off a golden crown</t>
+  </si>
+  <si>
+    <t>Red Queen and White Queen sitting with Alice</t>
+  </si>
+  <si>
+    <t>Red Queen and White Queen sleeping on Alice</t>
+  </si>
+  <si>
+    <t>Alice and Frog standing before a door</t>
+  </si>
+  <si>
+    <t>Mutton making a little bow</t>
+  </si>
+  <si>
+    <t>Alice pulling a table cloth</t>
+  </si>
+  <si>
+    <t>Alice shaking Red Queen</t>
+  </si>
+  <si>
+    <t>Alice shakinng Kitty</t>
+  </si>
+  <si>
+    <t>Alice looking over her shoulder at White Kitten</t>
   </si>
 </sst>
 </file>
@@ -1204,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74556BE0-D537-5748-89ED-4DC0B4F13FEE}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2286,6 +2379,9 @@
       <c r="E63" t="s">
         <v>18</v>
       </c>
+      <c r="F63" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -2300,8 +2396,11 @@
       <c r="E64" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>219</v>
       </c>
@@ -2314,8 +2413,11 @@
       <c r="E65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>220</v>
       </c>
@@ -2328,8 +2430,11 @@
       <c r="E66" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>221</v>
       </c>
@@ -2342,8 +2447,11 @@
       <c r="E67" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>222</v>
       </c>
@@ -2356,8 +2464,11 @@
       <c r="E68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>223</v>
       </c>
@@ -2370,8 +2481,11 @@
       <c r="E69" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>224</v>
       </c>
@@ -2384,8 +2498,11 @@
       <c r="E70" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>225</v>
       </c>
@@ -2398,8 +2515,11 @@
       <c r="E71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>226</v>
       </c>
@@ -2412,8 +2532,11 @@
       <c r="E72" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>227</v>
       </c>
@@ -2426,8 +2549,11 @@
       <c r="E73" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>228</v>
       </c>
@@ -2440,8 +2566,11 @@
       <c r="E74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>229</v>
       </c>
@@ -2454,8 +2583,11 @@
       <c r="E75" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>230</v>
       </c>
@@ -2468,8 +2600,11 @@
       <c r="E76" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>231</v>
       </c>
@@ -2482,8 +2617,11 @@
       <c r="E77" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>232</v>
       </c>
@@ -2496,8 +2634,11 @@
       <c r="E78" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>233</v>
       </c>
@@ -2510,8 +2651,11 @@
       <c r="E79" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>234</v>
       </c>
@@ -2523,6 +2667,9 @@
       </c>
       <c r="E80" t="s">
         <v>18</v>
+      </c>
+      <c r="F80" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2538,6 +2685,9 @@
       <c r="E81" t="s">
         <v>18</v>
       </c>
+      <c r="F81" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -2552,6 +2702,9 @@
       <c r="E82" t="s">
         <v>18</v>
       </c>
+      <c r="F82" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -2566,6 +2719,9 @@
       <c r="E83" t="s">
         <v>18</v>
       </c>
+      <c r="F83" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -2580,6 +2736,9 @@
       <c r="E84" t="s">
         <v>18</v>
       </c>
+      <c r="F84" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -2594,6 +2753,9 @@
       <c r="E85" t="s">
         <v>18</v>
       </c>
+      <c r="F85" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -2608,6 +2770,9 @@
       <c r="E86" t="s">
         <v>18</v>
       </c>
+      <c r="F86" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -2622,6 +2787,9 @@
       <c r="E87" t="s">
         <v>18</v>
       </c>
+      <c r="F87" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -2636,6 +2804,9 @@
       <c r="E88" t="s">
         <v>18</v>
       </c>
+      <c r="F88" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -2650,6 +2821,9 @@
       <c r="E89" t="s">
         <v>18</v>
       </c>
+      <c r="F89" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -2664,6 +2838,9 @@
       <c r="E90" t="s">
         <v>18</v>
       </c>
+      <c r="F90" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -2678,6 +2855,9 @@
       <c r="E91" t="s">
         <v>18</v>
       </c>
+      <c r="F91" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -2692,6 +2872,9 @@
       <c r="E92" t="s">
         <v>18</v>
       </c>
+      <c r="F92" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -2705,6 +2888,9 @@
       </c>
       <c r="E93" t="s">
         <v>18</v>
+      </c>
+      <c r="F93" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">

--- a/data/Spreadsheet_Data/ImageWonderlandCharacter.xlsx
+++ b/data/Spreadsheet_Data/ImageWonderlandCharacter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336AA764-C2ED-3A4E-96F1-DA345E1CABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DBA48D-21C8-3543-A4C4-46F24BA0BA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36360" yWindow="500" windowWidth="38300" windowHeight="31500" xr2:uid="{66B744F4-BA8C-F243-ADB2-B02347D4BBA8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="305">
   <si>
     <t>ID</t>
   </si>
@@ -929,6 +929,27 @@
   </si>
   <si>
     <t>Alice looking over her shoulder at White Kitten</t>
+  </si>
+  <si>
+    <t>IW_093</t>
+  </si>
+  <si>
+    <t>IW_094</t>
+  </si>
+  <si>
+    <t>IW_095</t>
+  </si>
+  <si>
+    <t>IW_096</t>
+  </si>
+  <si>
+    <t>IW_097</t>
+  </si>
+  <si>
+    <t>IW_098</t>
+  </si>
+  <si>
+    <t>IW_099</t>
   </si>
 </sst>
 </file>
@@ -1297,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74556BE0-D537-5748-89ED-4DC0B4F13FEE}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2895,7 +2916,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="B94" t="s">
         <v>19</v>
@@ -2912,7 +2933,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
@@ -2929,7 +2950,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>300</v>
       </c>
       <c r="B96" t="s">
         <v>21</v>
@@ -2946,7 +2967,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>301</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
@@ -2963,7 +2984,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="B98" t="s">
         <v>23</v>
@@ -2980,7 +3001,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="B99" t="s">
         <v>24</v>
@@ -2997,7 +3018,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>304</v>
       </c>
       <c r="B100" t="s">
         <v>25</v>

--- a/data/Spreadsheet_Data/ImageWonderlandCharacter.xlsx
+++ b/data/Spreadsheet_Data/ImageWonderlandCharacter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DBA48D-21C8-3543-A4C4-46F24BA0BA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5669A0D1-5CFB-CB49-94E1-57EC20F48B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36360" yWindow="500" windowWidth="38300" windowHeight="31500" xr2:uid="{66B744F4-BA8C-F243-ADB2-B02347D4BBA8}"/>
   </bookViews>
@@ -1326,7 +1326,7 @@
   <cols>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="55.5703125" customWidth="1"/>
     <col min="6" max="6" width="70" customWidth="1"/>
   </cols>
   <sheetData>
